--- a/code/Source_Data_TableS1.4.xlsx
+++ b/code/Source_Data_TableS1.4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,36 +604,6 @@
           <t>0.5 pred TSNE SP</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Pred Bi-LSTM</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Pred LSTM</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Pred MLP</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Pred RNN</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Pred Transformer</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Pred Random Forest</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -740,24 +710,6 @@
       <c r="AH2" t="n">
         <v>0</v>
       </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -775,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F3" t="n">
         <v>0.566148754</v>
@@ -793,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L3" t="n">
         <v>0.566148754</v>
@@ -811,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R3" t="n">
         <v>0.566148754</v>
@@ -829,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X3" t="n">
         <v>0.566148754</v>
@@ -847,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD3" t="n">
         <v>0.566148754</v>
@@ -862,24 +814,6 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -899,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F4" t="n">
         <v>0.566148754</v>
@@ -917,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L4" t="n">
         <v>0.566148754</v>
@@ -935,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R4" t="n">
         <v>0.566148754</v>
@@ -953,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X4" t="n">
         <v>0.566148754</v>
@@ -971,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD4" t="n">
         <v>0.566148754</v>
@@ -987,24 +921,6 @@
       </c>
       <c r="AH4" t="n">
         <v>1</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1023,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F5" t="n">
         <v>0.566148754</v>
@@ -1041,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L5" t="n">
         <v>0.566148754</v>
@@ -1059,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R5" t="n">
         <v>0.566148754</v>
@@ -1077,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X5" t="n">
         <v>0.566148754</v>
@@ -1095,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD5" t="n">
         <v>0.566148754</v>
@@ -1110,24 +1026,6 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F6" t="n">
         <v>0.566148754</v>
@@ -1165,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L6" t="n">
         <v>0.566148754</v>
@@ -1183,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R6" t="n">
         <v>0.566148754</v>
@@ -1201,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X6" t="n">
         <v>0.566148754</v>
@@ -1219,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD6" t="n">
         <v>0.566148754</v>
@@ -1235,24 +1133,6 @@
       </c>
       <c r="AH6" t="n">
         <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1271,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F7" t="n">
         <v>0.566148754</v>
@@ -1289,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L7" t="n">
         <v>0.566148754</v>
@@ -1307,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R7" t="n">
         <v>0.566148754</v>
@@ -1325,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X7" t="n">
         <v>0.566148754</v>
@@ -1343,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD7" t="n">
         <v>0.566148754</v>
@@ -1358,24 +1238,6 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1395,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F8" t="n">
         <v>0.566148754</v>
@@ -1413,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L8" t="n">
         <v>0.566148754</v>
@@ -1431,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R8" t="n">
         <v>0.566148754</v>
@@ -1449,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X8" t="n">
         <v>0.566148754</v>
@@ -1467,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD8" t="n">
         <v>0.566148754</v>
@@ -1483,24 +1345,6 @@
       </c>
       <c r="AH8" t="n">
         <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1608,24 +1452,6 @@
       <c r="AH9" t="n">
         <v>0</v>
       </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1643,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F10" t="n">
         <v>0.566148754</v>
@@ -1661,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L10" t="n">
         <v>0.566148754</v>
@@ -1679,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R10" t="n">
         <v>0.566148754</v>
@@ -1697,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X10" t="n">
         <v>0.566148754</v>
@@ -1715,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD10" t="n">
         <v>0.566148754</v>
@@ -1731,24 +1557,6 @@
       </c>
       <c r="AH10" t="n">
         <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1856,24 +1664,6 @@
       <c r="AH11" t="n">
         <v>0</v>
       </c>
-      <c r="AI11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1891,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F12" t="n">
         <v>0.566148754</v>
@@ -1909,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L12" t="n">
         <v>0.566148754</v>
@@ -1927,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R12" t="n">
         <v>0.566148754</v>
@@ -1945,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X12" t="n">
         <v>0.566148754</v>
@@ -1963,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD12" t="n">
         <v>0.566148754</v>
@@ -1978,24 +1768,6 @@
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2015,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F13" t="n">
         <v>0.566148754</v>
@@ -2033,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L13" t="n">
         <v>0.566148754</v>
@@ -2051,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R13" t="n">
         <v>0.566148754</v>
@@ -2069,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X13" t="n">
         <v>0.566148754</v>
@@ -2087,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD13" t="n">
         <v>0.566148754</v>
@@ -2102,24 +1874,6 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2139,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F14" t="n">
         <v>0.566148754</v>
@@ -2157,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L14" t="n">
         <v>0.566148754</v>
@@ -2175,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R14" t="n">
         <v>0.566148754</v>
@@ -2193,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X14" t="n">
         <v>0.566148754</v>
@@ -2211,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD14" t="n">
         <v>0.566148754</v>
@@ -2226,24 +1980,6 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2352,24 +2088,6 @@
       <c r="AH15" t="n">
         <v>0</v>
       </c>
-      <c r="AI15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2387,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F16" t="n">
         <v>0.566148754</v>
@@ -2405,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L16" t="n">
         <v>0.566148754</v>
@@ -2423,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R16" t="n">
         <v>0.566148754</v>
@@ -2441,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X16" t="n">
         <v>0.566148754</v>
@@ -2459,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD16" t="n">
         <v>0.566148754</v>
@@ -2474,24 +2192,6 @@
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2511,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F17" t="n">
         <v>0.566148754</v>
@@ -2529,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L17" t="n">
         <v>0.566148754</v>
@@ -2547,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R17" t="n">
         <v>0.566148754</v>
@@ -2565,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X17" t="n">
         <v>0.566148754</v>
@@ -2583,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD17" t="n">
         <v>0.566148754</v>
@@ -2598,24 +2298,6 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2635,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F18" t="n">
         <v>0.566148754</v>
@@ -2653,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L18" t="n">
         <v>0.566148754</v>
@@ -2671,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R18" t="n">
         <v>0.566148754</v>
@@ -2689,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X18" t="n">
         <v>0.566148754</v>
@@ -2707,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD18" t="n">
         <v>0.566148754</v>
@@ -2722,24 +2404,6 @@
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2759,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F19" t="n">
         <v>0.566148754</v>
@@ -2777,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L19" t="n">
         <v>0.566148754</v>
@@ -2795,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R19" t="n">
         <v>0.566148754</v>
@@ -2813,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X19" t="n">
         <v>0.566148754</v>
@@ -2831,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD19" t="n">
         <v>0.566148754</v>
@@ -2847,24 +2511,6 @@
       </c>
       <c r="AH19" t="n">
         <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2883,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F20" t="n">
         <v>0.566148754</v>
@@ -2901,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L20" t="n">
         <v>0.566148754</v>
@@ -2919,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R20" t="n">
         <v>0.566148754</v>
@@ -2937,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X20" t="n">
         <v>0.566148754</v>
@@ -2955,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD20" t="n">
         <v>0.566148754</v>
@@ -2971,24 +2617,6 @@
       </c>
       <c r="AH20" t="n">
         <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3096,24 +2724,6 @@
       <c r="AH21" t="n">
         <v>0</v>
       </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3220,24 +2830,6 @@
       <c r="AH22" t="n">
         <v>1</v>
       </c>
-      <c r="AI22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3255,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F23" t="n">
         <v>0.566148754</v>
@@ -3273,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L23" t="n">
         <v>0.566148754</v>
@@ -3291,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R23" t="n">
         <v>0.566148754</v>
@@ -3309,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X23" t="n">
         <v>0.566148754</v>
@@ -3327,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD23" t="n">
         <v>0.566148754</v>
@@ -3343,24 +2935,6 @@
       </c>
       <c r="AH23" t="n">
         <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3379,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F24" t="n">
         <v>0.566148754</v>
@@ -3397,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L24" t="n">
         <v>0.566148754</v>
@@ -3415,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R24" t="n">
         <v>0.566148754</v>
@@ -3433,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X24" t="n">
         <v>0.566148754</v>
@@ -3451,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD24" t="n">
         <v>0.566148754</v>
@@ -3466,24 +3040,6 @@
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3503,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F25" t="n">
         <v>0.566148754</v>
@@ -3521,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L25" t="n">
         <v>0.566148754</v>
@@ -3539,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R25" t="n">
         <v>0.566148754</v>
@@ -3557,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X25" t="n">
         <v>0.566148754</v>
@@ -3575,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD25" t="n">
         <v>0.566148754</v>
@@ -3590,24 +3146,6 @@
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3716,24 +3254,6 @@
       <c r="AH26" t="n">
         <v>0</v>
       </c>
-      <c r="AI26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3751,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F27" t="n">
         <v>0.566148754</v>
@@ -3769,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L27" t="n">
         <v>0.566148754</v>
@@ -3787,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R27" t="n">
         <v>0.566148754</v>
@@ -3805,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X27" t="n">
         <v>0.566148754</v>
@@ -3823,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD27" t="n">
         <v>0.566148754</v>
@@ -3838,24 +3358,6 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3875,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F28" t="n">
         <v>0.566148754</v>
@@ -3893,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L28" t="n">
         <v>0.566148754</v>
@@ -3911,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R28" t="n">
         <v>0.566148754</v>
@@ -3929,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X28" t="n">
         <v>0.566148754</v>
@@ -3947,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD28" t="n">
         <v>0.566148754</v>
@@ -3962,24 +3464,6 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,24 +3572,6 @@
       <c r="AH29" t="n">
         <v>1</v>
       </c>
-      <c r="AI29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4123,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F30" t="n">
         <v>0.566148754</v>
@@ -4141,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L30" t="n">
         <v>0.566148754</v>
@@ -4159,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R30" t="n">
         <v>0.566148754</v>
@@ -4177,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X30" t="n">
         <v>0.566148754</v>
@@ -4195,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD30" t="n">
         <v>0.566148754</v>
@@ -4210,24 +3676,6 @@
         <v>1</v>
       </c>
       <c r="AH30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F31" t="n">
         <v>0.566148754</v>
@@ -4265,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L31" t="n">
         <v>0.566148754</v>
@@ -4283,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R31" t="n">
         <v>0.566148754</v>
@@ -4301,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X31" t="n">
         <v>0.566148754</v>
@@ -4319,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD31" t="n">
         <v>0.566148754</v>
@@ -4335,24 +3783,6 @@
       </c>
       <c r="AH31" t="n">
         <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4371,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F32" t="n">
         <v>0.566148754</v>
@@ -4389,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L32" t="n">
         <v>0.566148754</v>
@@ -4407,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R32" t="n">
         <v>0.566148754</v>
@@ -4425,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X32" t="n">
         <v>0.566148754</v>
@@ -4443,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD32" t="n">
         <v>0.566148754</v>
@@ -4458,24 +3888,6 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4495,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F33" t="n">
         <v>0.566148754</v>
@@ -4513,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L33" t="n">
         <v>0.566148754</v>
@@ -4531,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R33" t="n">
         <v>0.566148754</v>
@@ -4549,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X33" t="n">
         <v>0.566148754</v>
@@ -4567,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD33" t="n">
         <v>0.566148754</v>
@@ -4582,24 +3994,6 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4619,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F34" t="n">
         <v>0.566148754</v>
@@ -4637,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L34" t="n">
         <v>0.566148754</v>
@@ -4655,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R34" t="n">
         <v>0.566148754</v>
@@ -4673,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X34" t="n">
         <v>0.566148754</v>
@@ -4691,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD34" t="n">
         <v>0.566148754</v>
@@ -4707,24 +4101,6 @@
       </c>
       <c r="AH34" t="n">
         <v>1</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4743,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F35" t="n">
         <v>0.566148754</v>
@@ -4761,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L35" t="n">
         <v>0.566148754</v>
@@ -4779,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R35" t="n">
         <v>0.566148754</v>
@@ -4797,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X35" t="n">
         <v>0.566148754</v>
@@ -4815,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD35" t="n">
         <v>0.566148754</v>
@@ -4831,24 +4207,6 @@
       </c>
       <c r="AH35" t="n">
         <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -4956,24 +4314,6 @@
       <c r="AH36" t="n">
         <v>0</v>
       </c>
-      <c r="AI36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4991,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F37" t="n">
         <v>0.566148754</v>
@@ -5009,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L37" t="n">
         <v>0.566148754</v>
@@ -5027,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R37" t="n">
         <v>0.566148754</v>
@@ -5045,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X37" t="n">
         <v>0.566148754</v>
@@ -5063,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD37" t="n">
         <v>0.566148754</v>
@@ -5078,24 +4418,6 @@
         <v>1</v>
       </c>
       <c r="AH37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5115,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F38" t="n">
         <v>0.566148754</v>
@@ -5133,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L38" t="n">
         <v>0.566148754</v>
@@ -5151,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R38" t="n">
         <v>0.566148754</v>
@@ -5169,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X38" t="n">
         <v>0.566148754</v>
@@ -5187,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD38" t="n">
         <v>0.566148754</v>
@@ -5203,24 +4525,6 @@
       </c>
       <c r="AH38" t="n">
         <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -5239,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F39" t="n">
         <v>0.566148754</v>
@@ -5257,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L39" t="n">
         <v>0.566148754</v>
@@ -5275,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R39" t="n">
         <v>0.566148754</v>
@@ -5293,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X39" t="n">
         <v>0.566148754</v>
@@ -5311,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD39" t="n">
         <v>0.566148754</v>
@@ -5327,24 +4631,6 @@
       </c>
       <c r="AH39" t="n">
         <v>1</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5363,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F40" t="n">
         <v>0.566148754</v>
@@ -5381,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L40" t="n">
         <v>0.566148754</v>
@@ -5399,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R40" t="n">
         <v>0.566148754</v>
@@ -5417,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X40" t="n">
         <v>0.566148754</v>
@@ -5435,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD40" t="n">
         <v>0.566148754</v>
@@ -5450,24 +4736,6 @@
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5576,24 +4844,6 @@
       <c r="AH41" t="n">
         <v>0</v>
       </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5700,24 +4950,6 @@
       <c r="AH42" t="n">
         <v>0</v>
       </c>
-      <c r="AI42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5735,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F43" t="n">
         <v>0.566148754</v>
@@ -5753,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L43" t="n">
         <v>0.566148754</v>
@@ -5771,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R43" t="n">
         <v>0.566148754</v>
@@ -5789,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X43" t="n">
         <v>0.566148754</v>
@@ -5807,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD43" t="n">
         <v>0.566148754</v>
@@ -5823,24 +5055,6 @@
       </c>
       <c r="AH43" t="n">
         <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5859,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F44" t="n">
         <v>0.566148754</v>
@@ -5877,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L44" t="n">
         <v>0.566148754</v>
@@ -5895,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R44" t="n">
         <v>0.566148754</v>
@@ -5913,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X44" t="n">
         <v>0.566148754</v>
@@ -5931,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD44" t="n">
         <v>0.566148754</v>
@@ -5946,24 +5160,6 @@
         <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5983,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F45" t="n">
         <v>0.566148754</v>
@@ -6001,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L45" t="n">
         <v>0.566148754</v>
@@ -6019,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R45" t="n">
         <v>0.566148754</v>
@@ -6037,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X45" t="n">
         <v>0.566148754</v>
@@ -6055,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD45" t="n">
         <v>0.566148754</v>
@@ -6070,24 +5266,6 @@
         <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6107,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F46" t="n">
         <v>0.566148754</v>
@@ -6125,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L46" t="n">
         <v>0.566148754</v>
@@ -6143,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R46" t="n">
         <v>0.566148754</v>
@@ -6161,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X46" t="n">
         <v>0.566148754</v>
@@ -6179,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD46" t="n">
         <v>0.566148754</v>
@@ -6195,24 +5373,6 @@
       </c>
       <c r="AH46" t="n">
         <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -6320,24 +5480,6 @@
       <c r="AH47" t="n">
         <v>1</v>
       </c>
-      <c r="AI47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6355,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F48" t="n">
         <v>0.566148754</v>
@@ -6373,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L48" t="n">
         <v>0.566148754</v>
@@ -6391,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R48" t="n">
         <v>0.566148754</v>
@@ -6409,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="W48" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X48" t="n">
         <v>0.566148754</v>
@@ -6427,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD48" t="n">
         <v>0.566148754</v>
@@ -6442,24 +5584,6 @@
         <v>1</v>
       </c>
       <c r="AH48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,24 +5692,6 @@
       <c r="AH49" t="n">
         <v>1</v>
       </c>
-      <c r="AI49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6603,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F50" t="n">
         <v>0.566148754</v>
@@ -6621,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L50" t="n">
         <v>0.566148754</v>
@@ -6639,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R50" t="n">
         <v>0.566148754</v>
@@ -6657,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="W50" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X50" t="n">
         <v>0.566148754</v>
@@ -6675,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD50" t="n">
         <v>0.566148754</v>
@@ -6690,24 +5796,6 @@
         <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6727,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F51" t="n">
         <v>0.566148754</v>
@@ -6745,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L51" t="n">
         <v>0.566148754</v>
@@ -6763,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R51" t="n">
         <v>0.566148754</v>
@@ -6781,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X51" t="n">
         <v>0.566148754</v>
@@ -6799,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD51" t="n">
         <v>0.566148754</v>
@@ -6815,24 +5903,6 @@
       </c>
       <c r="AH51" t="n">
         <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -6851,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F52" t="n">
         <v>0.566148754</v>
@@ -6869,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L52" t="n">
         <v>0.566148754</v>
@@ -6887,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R52" t="n">
         <v>0.566148754</v>
@@ -6905,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X52" t="n">
         <v>0.566148754</v>
@@ -6923,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD52" t="n">
         <v>0.566148754</v>
@@ -6939,24 +6009,6 @@
       </c>
       <c r="AH52" t="n">
         <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -6975,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F53" t="n">
         <v>0.566148754</v>
@@ -6993,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L53" t="n">
         <v>0.566148754</v>
@@ -7011,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R53" t="n">
         <v>0.566148754</v>
@@ -7029,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X53" t="n">
         <v>0.566148754</v>
@@ -7047,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD53" t="n">
         <v>0.566148754</v>
@@ -7062,24 +6114,6 @@
         <v>0</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7099,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F54" t="n">
         <v>0.566148754</v>
@@ -7117,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L54" t="n">
         <v>0.566148754</v>
@@ -7135,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R54" t="n">
         <v>0.566148754</v>
@@ -7153,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X54" t="n">
         <v>0.566148754</v>
@@ -7171,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD54" t="n">
         <v>0.566148754</v>
@@ -7187,24 +6221,6 @@
       </c>
       <c r="AH54" t="n">
         <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -7223,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F55" t="n">
         <v>0.566148754</v>
@@ -7241,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L55" t="n">
         <v>0.566148754</v>
@@ -7259,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R55" t="n">
         <v>0.566148754</v>
@@ -7277,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X55" t="n">
         <v>0.566148754</v>
@@ -7295,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD55" t="n">
         <v>0.566148754</v>
@@ -7310,24 +6326,6 @@
         <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7347,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F56" t="n">
         <v>0.566148754</v>
@@ -7365,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L56" t="n">
         <v>0.566148754</v>
@@ -7383,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R56" t="n">
         <v>0.566148754</v>
@@ -7401,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X56" t="n">
         <v>0.566148754</v>
@@ -7419,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD56" t="n">
         <v>0.566148754</v>
@@ -7435,24 +6433,6 @@
       </c>
       <c r="AH56" t="n">
         <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -7560,24 +6540,6 @@
       <c r="AH57" t="n">
         <v>0</v>
       </c>
-      <c r="AI57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7595,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F58" t="n">
         <v>0.566148754</v>
@@ -7613,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L58" t="n">
         <v>0.566148754</v>
@@ -7631,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R58" t="n">
         <v>0.566148754</v>
@@ -7649,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X58" t="n">
         <v>0.566148754</v>
@@ -7667,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD58" t="n">
         <v>0.566148754</v>
@@ -7682,24 +6644,6 @@
         <v>1</v>
       </c>
       <c r="AH58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7719,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F59" t="n">
         <v>0.566148754</v>
@@ -7737,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L59" t="n">
         <v>0.566148754</v>
@@ -7755,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R59" t="n">
         <v>0.566148754</v>
@@ -7773,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X59" t="n">
         <v>0.566148754</v>
@@ -7791,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD59" t="n">
         <v>0.566148754</v>
@@ -7807,24 +6751,6 @@
       </c>
       <c r="AH59" t="n">
         <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -7932,24 +6858,6 @@
       <c r="AH60" t="n">
         <v>0</v>
       </c>
-      <c r="AI60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7967,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F61" t="n">
         <v>0.566148754</v>
@@ -7985,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L61" t="n">
         <v>0.566148754</v>
@@ -8003,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R61" t="n">
         <v>0.566148754</v>
@@ -8021,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X61" t="n">
         <v>0.566148754</v>
@@ -8039,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD61" t="n">
         <v>0.566148754</v>
@@ -8054,24 +6962,6 @@
         <v>1</v>
       </c>
       <c r="AH61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8180,24 +7070,6 @@
       <c r="AH62" t="n">
         <v>0</v>
       </c>
-      <c r="AI62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8215,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F63" t="n">
         <v>0.566148754</v>
@@ -8233,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L63" t="n">
         <v>0.566148754</v>
@@ -8251,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R63" t="n">
         <v>0.566148754</v>
@@ -8269,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="W63" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X63" t="n">
         <v>0.566148754</v>
@@ -8287,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD63" t="n">
         <v>0.566148754</v>
@@ -8303,24 +7175,6 @@
       </c>
       <c r="AH63" t="n">
         <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -8339,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F64" t="n">
         <v>0.566148754</v>
@@ -8357,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L64" t="n">
         <v>0.566148754</v>
@@ -8375,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R64" t="n">
         <v>0.566148754</v>
@@ -8393,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X64" t="n">
         <v>0.566148754</v>
@@ -8411,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD64" t="n">
         <v>0.566148754</v>
@@ -8426,24 +7280,6 @@
         <v>0</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8552,24 +7388,6 @@
       <c r="AH65" t="n">
         <v>0</v>
       </c>
-      <c r="AI65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8587,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F66" t="n">
         <v>0.566148754</v>
@@ -8605,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L66" t="n">
         <v>0.566148754</v>
@@ -8623,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R66" t="n">
         <v>0.566148754</v>
@@ -8641,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X66" t="n">
         <v>0.566148754</v>
@@ -8659,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD66" t="n">
         <v>0.566148754</v>
@@ -8674,24 +7492,6 @@
         <v>1</v>
       </c>
       <c r="AH66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8711,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F67" t="n">
         <v>0.566148754</v>
@@ -8729,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L67" t="n">
         <v>0.566148754</v>
@@ -8747,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R67" t="n">
         <v>0.566148754</v>
@@ -8765,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="W67" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X67" t="n">
         <v>0.566148754</v>
@@ -8783,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD67" t="n">
         <v>0.566148754</v>
@@ -8798,24 +7598,6 @@
         <v>1</v>
       </c>
       <c r="AH67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8835,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F68" t="n">
         <v>0.566148754</v>
@@ -8853,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L68" t="n">
         <v>0.566148754</v>
@@ -8871,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R68" t="n">
         <v>0.566148754</v>
@@ -8889,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X68" t="n">
         <v>0.566148754</v>
@@ -8907,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD68" t="n">
         <v>0.566148754</v>
@@ -8922,24 +7704,6 @@
         <v>0</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8959,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F69" t="n">
         <v>0.566148754</v>
@@ -8977,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L69" t="n">
         <v>0.566148754</v>
@@ -8995,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R69" t="n">
         <v>0.566148754</v>
@@ -9013,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X69" t="n">
         <v>0.566148754</v>
@@ -9031,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD69" t="n">
         <v>0.566148754</v>
@@ -9047,24 +7811,6 @@
       </c>
       <c r="AH69" t="n">
         <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -9172,24 +7918,6 @@
       <c r="AH70" t="n">
         <v>0</v>
       </c>
-      <c r="AI70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -9207,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F71" t="n">
         <v>0.566148754</v>
@@ -9225,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L71" t="n">
         <v>0.566148754</v>
@@ -9243,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R71" t="n">
         <v>0.566148754</v>
@@ -9261,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X71" t="n">
         <v>0.566148754</v>
@@ -9279,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="AC71" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD71" t="n">
         <v>0.566148754</v>
@@ -9294,24 +8022,6 @@
         <v>1</v>
       </c>
       <c r="AH71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9331,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F72" t="n">
         <v>0.566148754</v>
@@ -9349,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L72" t="n">
         <v>0.566148754</v>
@@ -9367,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R72" t="n">
         <v>0.566148754</v>
@@ -9385,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X72" t="n">
         <v>0.566148754</v>
@@ -9403,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD72" t="n">
         <v>0.566148754</v>
@@ -9418,24 +8128,6 @@
         <v>0</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9455,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F73" t="n">
         <v>0.566148754</v>
@@ -9473,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L73" t="n">
         <v>0.566148754</v>
@@ -9491,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R73" t="n">
         <v>0.566148754</v>
@@ -9509,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X73" t="n">
         <v>0.566148754</v>
@@ -9527,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD73" t="n">
         <v>0.566148754</v>
@@ -9543,24 +8235,6 @@
       </c>
       <c r="AH73" t="n">
         <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -9668,24 +8342,6 @@
       <c r="AH74" t="n">
         <v>1</v>
       </c>
-      <c r="AI74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -9703,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F75" t="n">
         <v>0.566148754</v>
@@ -9721,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L75" t="n">
         <v>0.566148754</v>
@@ -9739,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R75" t="n">
         <v>0.566148754</v>
@@ -9757,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="W75" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X75" t="n">
         <v>0.566148754</v>
@@ -9775,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD75" t="n">
         <v>0.566148754</v>
@@ -9791,24 +8447,6 @@
       </c>
       <c r="AH75" t="n">
         <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -9827,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F76" t="n">
         <v>0.566148754</v>
@@ -9845,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L76" t="n">
         <v>0.566148754</v>
@@ -9863,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R76" t="n">
         <v>0.566148754</v>
@@ -9881,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X76" t="n">
         <v>0.566148754</v>
@@ -9899,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD76" t="n">
         <v>0.566148754</v>
@@ -9914,24 +8552,6 @@
         <v>0</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10040,24 +8660,6 @@
       <c r="AH77" t="n">
         <v>1</v>
       </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -10075,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F78" t="n">
         <v>0.566148754</v>
@@ -10093,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L78" t="n">
         <v>0.566148754</v>
@@ -10111,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R78" t="n">
         <v>0.566148754</v>
@@ -10129,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="W78" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X78" t="n">
         <v>0.566148754</v>
@@ -10147,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD78" t="n">
         <v>0.566148754</v>
@@ -10163,24 +8765,6 @@
       </c>
       <c r="AH78" t="n">
         <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -10199,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F79" t="n">
         <v>0.566148754</v>
@@ -10217,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L79" t="n">
         <v>0.566148754</v>
@@ -10235,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R79" t="n">
         <v>0.566148754</v>
@@ -10253,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="W79" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X79" t="n">
         <v>0.566148754</v>
@@ -10271,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD79" t="n">
         <v>0.566148754</v>
@@ -10287,24 +8871,6 @@
       </c>
       <c r="AH79" t="n">
         <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -10323,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F80" t="n">
         <v>0.566148754</v>
@@ -10341,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L80" t="n">
         <v>0.566148754</v>
@@ -10359,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R80" t="n">
         <v>0.566148754</v>
@@ -10377,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="W80" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X80" t="n">
         <v>0.566148754</v>
@@ -10395,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="AC80" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD80" t="n">
         <v>0.566148754</v>
@@ -10411,24 +8977,6 @@
       </c>
       <c r="AH80" t="n">
         <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -10447,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F81" t="n">
         <v>0.566148754</v>
@@ -10465,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L81" t="n">
         <v>0.566148754</v>
@@ -10483,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R81" t="n">
         <v>0.566148754</v>
@@ -10501,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="W81" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X81" t="n">
         <v>0.566148754</v>
@@ -10519,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD81" t="n">
         <v>0.566148754</v>
@@ -10534,24 +9082,6 @@
         <v>0</v>
       </c>
       <c r="AH81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10660,24 +9190,6 @@
       <c r="AH82" t="n">
         <v>0</v>
       </c>
-      <c r="AI82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -10784,24 +9296,6 @@
       <c r="AH83" t="n">
         <v>1</v>
       </c>
-      <c r="AI83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -10819,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F84" t="n">
         <v>0.566148754</v>
@@ -10837,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L84" t="n">
         <v>0.566148754</v>
@@ -10855,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R84" t="n">
         <v>0.566148754</v>
@@ -10873,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="W84" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X84" t="n">
         <v>0.566148754</v>
@@ -10891,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD84" t="n">
         <v>0.566148754</v>
@@ -10906,24 +9400,6 @@
         <v>1</v>
       </c>
       <c r="AH84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10943,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F85" t="n">
         <v>0.566148754</v>
@@ -10961,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L85" t="n">
         <v>0.566148754</v>
@@ -10979,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R85" t="n">
         <v>0.566148754</v>
@@ -10997,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="W85" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X85" t="n">
         <v>0.566148754</v>
@@ -11015,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD85" t="n">
         <v>0.566148754</v>
@@ -11031,24 +9507,6 @@
       </c>
       <c r="AH85" t="n">
         <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -11067,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F86" t="n">
         <v>0.566148754</v>
@@ -11085,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L86" t="n">
         <v>0.566148754</v>
@@ -11103,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R86" t="n">
         <v>0.566148754</v>
@@ -11121,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="W86" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X86" t="n">
         <v>0.566148754</v>
@@ -11139,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD86" t="n">
         <v>0.566148754</v>
@@ -11155,24 +9613,6 @@
       </c>
       <c r="AH86" t="n">
         <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -11191,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F87" t="n">
         <v>0.566148754</v>
@@ -11209,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L87" t="n">
         <v>0.566148754</v>
@@ -11227,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R87" t="n">
         <v>0.566148754</v>
@@ -11245,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X87" t="n">
         <v>0.566148754</v>
@@ -11263,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AC87" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD87" t="n">
         <v>0.566148754</v>
@@ -11278,24 +9718,6 @@
         <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11315,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F88" t="n">
         <v>0.566148754</v>
@@ -11333,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L88" t="n">
         <v>0.566148754</v>
@@ -11351,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R88" t="n">
         <v>0.566148754</v>
@@ -11369,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X88" t="n">
         <v>0.566148754</v>
@@ -11387,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="AC88" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD88" t="n">
         <v>0.566148754</v>
@@ -11403,24 +9825,6 @@
       </c>
       <c r="AH88" t="n">
         <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -11528,24 +9932,6 @@
       <c r="AH89" t="n">
         <v>1</v>
       </c>
-      <c r="AI89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -11563,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F90" t="n">
         <v>0.566148754</v>
@@ -11581,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L90" t="n">
         <v>0.566148754</v>
@@ -11599,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R90" t="n">
         <v>0.566148754</v>
@@ -11617,7 +10003,7 @@
         <v>1</v>
       </c>
       <c r="W90" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X90" t="n">
         <v>0.566148754</v>
@@ -11635,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="AC90" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD90" t="n">
         <v>0.566148754</v>
@@ -11651,24 +10037,6 @@
       </c>
       <c r="AH90" t="n">
         <v>0</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -11687,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F91" t="n">
         <v>0.566148754</v>
@@ -11705,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L91" t="n">
         <v>0.566148754</v>
@@ -11723,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R91" t="n">
         <v>0.566148754</v>
@@ -11741,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X91" t="n">
         <v>0.566148754</v>
@@ -11759,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="AC91" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD91" t="n">
         <v>0.566148754</v>
@@ -11774,24 +10142,6 @@
         <v>0</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11900,24 +10250,6 @@
       <c r="AH92" t="n">
         <v>0</v>
       </c>
-      <c r="AI92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -11935,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F93" t="n">
         <v>0.566148754</v>
@@ -11953,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L93" t="n">
         <v>0.566148754</v>
@@ -11971,7 +10303,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R93" t="n">
         <v>0.566148754</v>
@@ -11989,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="W93" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X93" t="n">
         <v>0.566148754</v>
@@ -12007,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="AC93" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD93" t="n">
         <v>0.566148754</v>
@@ -12022,24 +10354,6 @@
         <v>1</v>
       </c>
       <c r="AH93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12059,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F94" t="n">
         <v>0.566148754</v>
@@ -12077,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L94" t="n">
         <v>0.566148754</v>
@@ -12095,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R94" t="n">
         <v>0.566148754</v>
@@ -12113,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="W94" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X94" t="n">
         <v>0.566148754</v>
@@ -12131,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="AC94" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD94" t="n">
         <v>0.566148754</v>
@@ -12146,24 +10460,6 @@
         <v>1</v>
       </c>
       <c r="AH94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12183,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F95" t="n">
         <v>0.566148754</v>
@@ -12201,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L95" t="n">
         <v>0.566148754</v>
@@ -12219,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R95" t="n">
         <v>0.566148754</v>
@@ -12237,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="W95" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X95" t="n">
         <v>0.566148754</v>
@@ -12255,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="AC95" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD95" t="n">
         <v>0.566148754</v>
@@ -12270,24 +10566,6 @@
         <v>0</v>
       </c>
       <c r="AH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12307,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F96" t="n">
         <v>0.566148754</v>
@@ -12325,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L96" t="n">
         <v>0.566148754</v>
@@ -12343,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R96" t="n">
         <v>0.566148754</v>
@@ -12361,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X96" t="n">
         <v>0.566148754</v>
@@ -12379,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="AC96" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD96" t="n">
         <v>0.566148754</v>
@@ -12394,24 +10672,6 @@
         <v>0</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12520,24 +10780,6 @@
       <c r="AH97" t="n">
         <v>1</v>
       </c>
-      <c r="AI97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -12555,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F98" t="n">
         <v>0.566148754</v>
@@ -12573,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L98" t="n">
         <v>0.566148754</v>
@@ -12591,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R98" t="n">
         <v>0.566148754</v>
@@ -12609,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="W98" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X98" t="n">
         <v>0.566148754</v>
@@ -12627,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD98" t="n">
         <v>0.566148754</v>
@@ -12642,24 +10884,6 @@
         <v>0</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12679,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F99" t="n">
         <v>0.566148754</v>
@@ -12697,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L99" t="n">
         <v>0.566148754</v>
@@ -12715,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R99" t="n">
         <v>0.566148754</v>
@@ -12733,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X99" t="n">
         <v>0.566148754</v>
@@ -12751,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="AC99" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD99" t="n">
         <v>0.566148754</v>
@@ -12767,24 +10991,6 @@
       </c>
       <c r="AH99" t="n">
         <v>0</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -12803,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F100" t="n">
         <v>0.566148754</v>
@@ -12821,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L100" t="n">
         <v>0.566148754</v>
@@ -12839,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R100" t="n">
         <v>0.566148754</v>
@@ -12857,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X100" t="n">
         <v>0.566148754</v>
@@ -12875,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="AC100" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD100" t="n">
         <v>0.566148754</v>
@@ -12890,24 +11096,6 @@
         <v>0</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12927,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="F101" t="n">
         <v>0.566148754</v>
@@ -12945,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="L101" t="n">
         <v>0.566148754</v>
@@ -12963,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="R101" t="n">
         <v>0.566148754</v>
@@ -12981,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="X101" t="n">
         <v>0.566148754</v>
@@ -12999,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AC101" t="n">
-        <v>0.3060241575999999</v>
+        <v>0.3060241576</v>
       </c>
       <c r="AD101" t="n">
         <v>0.566148754</v>
@@ -13014,24 +11202,6 @@
         <v>0</v>
       </c>
       <c r="AH101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN101" t="n">
         <v>1</v>
       </c>
     </row>
